--- a/@Functions/ddateexport1.xlsx
+++ b/@Functions/ddateexport1.xlsx
@@ -68,7 +68,7 @@
     <t>CURRENT PERIOD:</t>
   </si>
   <si>
-    <t>April 2020</t>
+    <t>January 1970</t>
   </si>
   <si>
     <t>No.</t>
